--- a/LeetCode全部题目.xlsx
+++ b/LeetCode全部题目.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\src_sfyh\LeetcodeEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95629F7-195A-4576-ADDC-0186ADED2042}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0774AD21-F68D-4122-8515-EE863D937900}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BBDAA79A-ADA3-4AF8-83D0-7CEF043898DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1644</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3493" uniqueCount="1841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3505" uniqueCount="1842">
   <si>
     <t>题名</t>
   </si>
@@ -28400,6 +28403,10 @@
       </rPr>
       <t>备注</t>
     </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -28407,7 +28414,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28487,6 +28494,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -28540,7 +28555,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -28600,6 +28615,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -28919,7 +28940,7 @@
   <dimension ref="A1:G1645"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -29005,7 +29026,9 @@
       <c r="E4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="20" t="s">
+        <v>1841</v>
+      </c>
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -29157,7 +29180,9 @@
       <c r="E12" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="20" t="s">
+        <v>1841</v>
+      </c>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -29936,7 +29961,9 @@
       <c r="E53" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F53" s="15"/>
+      <c r="F53" s="20" t="s">
+        <v>1841</v>
+      </c>
       <c r="G53" s="9"/>
     </row>
     <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -30107,7 +30134,9 @@
       <c r="E62" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="8"/>
+      <c r="F62" s="20" t="s">
+        <v>1841</v>
+      </c>
       <c r="G62" s="9"/>
     </row>
     <row r="63" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -30126,7 +30155,9 @@
       <c r="E63" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F63" s="15"/>
+      <c r="F63" s="20" t="s">
+        <v>1841</v>
+      </c>
       <c r="G63" s="9"/>
     </row>
     <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -30259,7 +30290,9 @@
       <c r="E70" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F70" s="8"/>
+      <c r="F70" s="20" t="s">
+        <v>1841</v>
+      </c>
       <c r="G70" s="9"/>
     </row>
     <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -30848,7 +30881,9 @@
       <c r="E101" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F101" s="15"/>
+      <c r="F101" s="20" t="s">
+        <v>1841</v>
+      </c>
       <c r="G101" s="9"/>
     </row>
     <row r="102" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -30905,7 +30940,9 @@
       <c r="E104" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F104" s="8"/>
+      <c r="F104" s="20" t="s">
+        <v>1841</v>
+      </c>
       <c r="G104" s="9"/>
     </row>
     <row r="105" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -31019,7 +31056,9 @@
       <c r="E110" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F110" s="8"/>
+      <c r="F110" s="20" t="s">
+        <v>1841</v>
+      </c>
       <c r="G110" s="9"/>
     </row>
     <row r="111" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -36377,7 +36416,9 @@
       <c r="E392" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F392" s="8"/>
+      <c r="F392" s="20" t="s">
+        <v>1841</v>
+      </c>
       <c r="G392" s="9"/>
     </row>
     <row r="393" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -37574,7 +37615,9 @@
       <c r="E455" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F455" s="15"/>
+      <c r="F455" s="21" t="s">
+        <v>1841</v>
+      </c>
       <c r="G455" s="9"/>
     </row>
     <row r="456" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -42286,7 +42329,9 @@
       <c r="E703" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F703" s="15"/>
+      <c r="F703" s="21" t="s">
+        <v>1841</v>
+      </c>
       <c r="G703" s="9"/>
     </row>
     <row r="704" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -60177,6 +60222,7 @@
       <c r="F1645" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1644" xr:uid="{6DEFE698-B23A-433A-B8FD-5BB0780FF83D}"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://leetcode-cn.com/problems/two-sum" xr:uid="{A9C9561A-D25E-4F09-88A4-E2A3CE6D941C}"/>

--- a/LeetCode全部题目.xlsx
+++ b/LeetCode全部题目.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\src_sfyh\LeetcodeEveryday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0774AD21-F68D-4122-8515-EE863D937900}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2097D519-B570-4882-8870-E576DD81C6A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BBDAA79A-ADA3-4AF8-83D0-7CEF043898DC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BBDAA79A-ADA3-4AF8-83D0-7CEF043898DC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="全部题目" sheetId="1" r:id="rId1"/>
+    <sheet name="题目分类" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1644</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">全部题目!$A$1:$G$1644</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3505" uniqueCount="1842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3647" uniqueCount="1982">
   <si>
     <t>题名</t>
   </si>
@@ -28408,13 +28409,433 @@
   <si>
     <t>通过</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法分类</t>
+  </si>
+  <si>
+    <t>中级</t>
+  </si>
+  <si>
+    <t>LeetCode题目列表</t>
+  </si>
+  <si>
+    <t>栈</t>
+  </si>
+  <si>
+    <t>#20</t>
+  </si>
+  <si>
+    <t>#94</t>
+  </si>
+  <si>
+    <t>#42</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/tag/stack</t>
+  </si>
+  <si>
+    <t>堆</t>
+  </si>
+  <si>
+    <t>#215</t>
+  </si>
+  <si>
+    <t>#23</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/tag/heap/</t>
+  </si>
+  <si>
+    <t>贪心算法</t>
+  </si>
+  <si>
+    <t>#122</t>
+  </si>
+  <si>
+    <t>#406</t>
+  </si>
+  <si>
+    <t>#45</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/tag/greedy/</t>
+  </si>
+  <si>
+    <t>排序</t>
+  </si>
+  <si>
+    <t>#350</t>
+  </si>
+  <si>
+    <t>#148</t>
+  </si>
+  <si>
+    <t>#315</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/tag/sort/</t>
+  </si>
+  <si>
+    <t>位运算</t>
+  </si>
+  <si>
+    <t>#136</t>
+  </si>
+  <si>
+    <t>#78</t>
+  </si>
+  <si>
+    <t>#411</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/tag/bit-manipulation/</t>
+  </si>
+  <si>
+    <t>树</t>
+  </si>
+  <si>
+    <t>#226</t>
+  </si>
+  <si>
+    <t>#297</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/tag/tree/</t>
+  </si>
+  <si>
+    <t>深度优先搜索</t>
+  </si>
+  <si>
+    <t>#104</t>
+  </si>
+  <si>
+    <t>#394</t>
+  </si>
+  <si>
+    <t>#679</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/tag/depth-first-search/</t>
+  </si>
+  <si>
+    <t>广度优先搜索</t>
+  </si>
+  <si>
+    <t>#107</t>
+  </si>
+  <si>
+    <t>#279</t>
+  </si>
+  <si>
+    <t>#407</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/tag/breadth-first-search/</t>
+  </si>
+  <si>
+    <t>并查集</t>
+  </si>
+  <si>
+    <t>#130</t>
+  </si>
+  <si>
+    <t>#200</t>
+  </si>
+  <si>
+    <t>#778</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/tag/union-find/</t>
+  </si>
+  <si>
+    <t>图</t>
+  </si>
+  <si>
+    <t>#997</t>
+  </si>
+  <si>
+    <t>#133</t>
+  </si>
+  <si>
+    <t>#399</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/tag/graph/</t>
+  </si>
+  <si>
+    <t>设计</t>
+  </si>
+  <si>
+    <t>#225</t>
+  </si>
+  <si>
+    <t>#146</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/tag/design/</t>
+  </si>
+  <si>
+    <t>拓扑排序</t>
+  </si>
+  <si>
+    <t>#329</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/tag/topological-sort/</t>
+  </si>
+  <si>
+    <t>字典树</t>
+  </si>
+  <si>
+    <t>#208</t>
+  </si>
+  <si>
+    <t>#692</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/tag/trie/</t>
+  </si>
+  <si>
+    <t>树状数组</t>
+  </si>
+  <si>
+    <t>#307</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/tag/binary-indexed-tree/</t>
+  </si>
+  <si>
+    <t>线段树</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/tag/segment-tree/</t>
+  </si>
+  <si>
+    <t>二叉搜索树</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/tag/binary-search-tree/</t>
+  </si>
+  <si>
+    <t>递归</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/tag/recursion/</t>
+  </si>
+  <si>
+    <t>脑筋急转弯</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/tag/brainteaser/</t>
+  </si>
+  <si>
+    <t>记忆化</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/tag/memoization/</t>
+  </si>
+  <si>
+    <t>队列</t>
+  </si>
+  <si>
+    <t>#621</t>
+  </si>
+  <si>
+    <t>#862</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/tag/queue/</t>
+  </si>
+  <si>
+    <t>极小化极大</t>
+  </si>
+  <si>
+    <t>#843</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/tag/minimax/</t>
+  </si>
+  <si>
+    <t>蓄水池抽样</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/tag/reservoir-sampling/</t>
+  </si>
+  <si>
+    <t>几何</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/tag/geometry/</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/tag/map/</t>
+  </si>
+  <si>
+    <t>数组</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>#16</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/tag/array/</t>
+  </si>
+  <si>
+    <t>哈希表</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>#85</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/tag/hash-table/</t>
+  </si>
+  <si>
+    <t>链表</t>
+  </si>
+  <si>
+    <t>#21</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>#25</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/tag/linked-list/</t>
+  </si>
+  <si>
+    <t>数学</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/tag/math/</t>
+  </si>
+  <si>
+    <t>双指针</t>
+  </si>
+  <si>
+    <t>#26</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/tag/two-pointers/</t>
+  </si>
+  <si>
+    <t>字符串</t>
+  </si>
+  <si>
+    <t>#13</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>#10</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/tag/string/</t>
+  </si>
+  <si>
+    <t>二分查找</t>
+  </si>
+  <si>
+    <t>#167</t>
+  </si>
+  <si>
+    <t>#287</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/tag/binary-search/</t>
+  </si>
+  <si>
+    <t>分治算法</t>
+  </si>
+  <si>
+    <t>#53</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/tag/divide-and-conquer/</t>
+  </si>
+  <si>
+    <t>动态规划</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/tag/dynamic-programming/</t>
+  </si>
+  <si>
+    <t>回溯算法</t>
+  </si>
+  <si>
+    <t>#784</t>
+  </si>
+  <si>
+    <t>#22</t>
+  </si>
+  <si>
+    <t>#37</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/tag/backtracking/</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>#470</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/tag/Random/</t>
+  </si>
+  <si>
+    <t>Rejection Sampling</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/tag/Rejection-Sampling/</t>
+  </si>
+  <si>
+    <t>Sliding Window</t>
+  </si>
+  <si>
+    <t>#1151</t>
+  </si>
+  <si>
+    <t>#992</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/tag/Sliding-Window/</t>
+  </si>
+  <si>
+    <t>Ordered Map</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/tag/Ordered-Map/</t>
+  </si>
+  <si>
+    <t>Line Sweep</t>
+  </si>
+  <si>
+    <t>#850</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/tag/line-sweep/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28502,6 +28923,19 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -28555,7 +28989,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -28621,6 +29055,18 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -28939,8 +29385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63342875-004E-4DAB-A3AB-E474801C9D21}">
   <dimension ref="A1:G1645"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView topLeftCell="A616" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -63515,4 +63961,692 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3287"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B37A1F32-5B8F-497A-A798-D86CEFA892D4}">
+  <dimension ref="A1:E40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.75" customWidth="1"/>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>1848</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>1852</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>1856</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>1857</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>1862</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>1866</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>1867</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24" t="s">
+        <v>1871</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>1876</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>1880</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>1885</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>1886</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>1891</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="23" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>1902</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24" t="s">
+        <v>1905</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="23" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24" t="s">
+        <v>1918</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="23" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="24" t="s">
+        <v>1922</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="24" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="23" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="24" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="23" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="24" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>1933</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="23" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="24" t="s">
+        <v>1936</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>1937</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>1941</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>1942</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="23" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="24" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="25" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="23" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>1951</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>1952</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="23" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>1956</v>
+      </c>
+      <c r="D32" s="23"/>
+      <c r="E32" s="24" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="23" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="24" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="23" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="24" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="23" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>1965</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="23" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B36" s="23"/>
+      <c r="C36" s="24" t="s">
+        <v>1969</v>
+      </c>
+      <c r="D36" s="23"/>
+      <c r="E36" s="24" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="23" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="24" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="23" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B38" s="23"/>
+      <c r="C38" s="24" t="s">
+        <v>1974</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>1975</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="23" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="24" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="23" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://leetcode-cn.com/problems/valid-parentheses/" xr:uid="{EA297EA3-9BF8-4B64-86B4-5EF38858929B}"/>
+    <hyperlink ref="C2" r:id="rId2" display="https://leetcode-cn.com/problems/binary-tree-inorder-traversal/" xr:uid="{AD19AFBD-2129-4569-B5DE-AFA08AE24C8B}"/>
+    <hyperlink ref="D2" r:id="rId3" display="https://leetcode-cn.com/problems/trapping-rain-water/" xr:uid="{30543F1E-EECC-4B4E-8515-E77955339218}"/>
+    <hyperlink ref="E2" r:id="rId4" xr:uid="{E22E68B5-266C-4058-9E40-9D2B8CBE514F}"/>
+    <hyperlink ref="C3" r:id="rId5" display="https://leetcode-cn.com/problems/kth-largest-element-in-an-array/" xr:uid="{CF5C33EC-1876-4021-8F25-923CDAD0835B}"/>
+    <hyperlink ref="D3" r:id="rId6" display="https://leetcode-cn.com/problems/merge-k-sorted-lists/" xr:uid="{4AE6CB66-B3ED-4312-B4FE-6F324479638B}"/>
+    <hyperlink ref="E3" r:id="rId7" xr:uid="{782D4EE9-6727-478F-BC9D-9ED263B6A78B}"/>
+    <hyperlink ref="B4" r:id="rId8" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-ii/" xr:uid="{14FDAABE-CD8E-4A9B-8F7F-FC9535ECE6F2}"/>
+    <hyperlink ref="C4" r:id="rId9" display="https://leetcode-cn.com/problems/queue-reconstruction-by-height/" xr:uid="{E8964D23-584E-4FD7-97E9-803B7BC1BA06}"/>
+    <hyperlink ref="D4" r:id="rId10" display="https://leetcode-cn.com/problems/jump-game-ii/" xr:uid="{25F52DC6-C0C1-40D3-99EF-25ADB00244FA}"/>
+    <hyperlink ref="E4" r:id="rId11" xr:uid="{07ADE697-50EA-48F1-8004-5A674740EB5F}"/>
+    <hyperlink ref="B5" r:id="rId12" display="https://leetcode-cn.com/problems/intersection-of-two-arrays-ii/" xr:uid="{ACC58A7C-AB73-4F17-92B5-B847BBE9677A}"/>
+    <hyperlink ref="C5" r:id="rId13" display="https://leetcode-cn.com/problems/sort-list/" xr:uid="{0F59DBEE-E84D-4924-8430-8B8EAD57E6B8}"/>
+    <hyperlink ref="D5" r:id="rId14" display="https://leetcode-cn.com/problems/count-of-smaller-numbers-after-self/" xr:uid="{C2F123A1-2FA9-4A35-8D56-A6568F0B51D7}"/>
+    <hyperlink ref="E5" r:id="rId15" xr:uid="{BDB72F98-87CB-469F-A021-C108BCFF86CE}"/>
+    <hyperlink ref="B6" r:id="rId16" display="https://leetcode-cn.com/problems/single-number/" xr:uid="{50D6C2EA-5010-4017-A7A2-8CDFF5A3E01A}"/>
+    <hyperlink ref="C6" r:id="rId17" display="https://leetcode-cn.com/problems/subsets/" xr:uid="{C39D1281-D461-4D30-A0D5-1A62ECA9A876}"/>
+    <hyperlink ref="D6" r:id="rId18" display="https://leetcode-cn.com/problems/minimum-unique-word-abbreviation/" xr:uid="{E48803B5-3A87-4BFC-A6EA-340C77D4EF1B}"/>
+    <hyperlink ref="E6" r:id="rId19" xr:uid="{C0E35471-57E4-4D2E-B35A-792C7AEF2D1F}"/>
+    <hyperlink ref="B7" r:id="rId20" display="https://leetcode-cn.com/problems/invert-binary-tree/" xr:uid="{28B2253A-D24A-4A6C-91AD-22382FF56A19}"/>
+    <hyperlink ref="D7" r:id="rId21" display="https://leetcode-cn.com/problems/serialize-and-deserialize-binary-tree/" xr:uid="{3DEBFAAD-FDED-48ED-A2FF-2042EFC396B7}"/>
+    <hyperlink ref="E7" r:id="rId22" xr:uid="{2BD7BDDA-EA5E-41A5-B5CE-BD41B946A350}"/>
+    <hyperlink ref="B8" r:id="rId23" display="https://leetcode-cn.com/problems/maximum-depth-of-binary-tree/" xr:uid="{827F98E4-4BBE-4BA8-8551-B1EE1BDB3D05}"/>
+    <hyperlink ref="C8" r:id="rId24" display="https://leetcode-cn.com/problems/decode-string/" xr:uid="{C0B9BC49-1482-4437-B6BF-D5B7C23F0F7D}"/>
+    <hyperlink ref="D8" r:id="rId25" display="https://leetcode-cn.com/problems/24-game/" xr:uid="{137B0460-89F0-4584-B3B1-10E51BAE4CA0}"/>
+    <hyperlink ref="E8" r:id="rId26" xr:uid="{D3A63F35-B9BD-4C71-BD44-0D4A641A96DC}"/>
+    <hyperlink ref="B9" r:id="rId27" display="https://leetcode-cn.com/problems/binary-tree-level-order-traversal-ii/" xr:uid="{A81DF190-D983-4C61-BC13-DCEC17DE42B7}"/>
+    <hyperlink ref="C9" r:id="rId28" display="https://leetcode-cn.com/problems/perfect-squares/" xr:uid="{30EBA784-EAAC-417E-B7A4-4FF2258BBAF2}"/>
+    <hyperlink ref="D9" r:id="rId29" display="https://leetcode-cn.com/problems/trapping-rain-water-ii/" xr:uid="{8E85C21C-F72B-4E81-86F2-653A5C0823A7}"/>
+    <hyperlink ref="E9" r:id="rId30" xr:uid="{1BFC010D-A3BF-4B3A-95B6-CDF3A0EEBA18}"/>
+    <hyperlink ref="B10" r:id="rId31" display="https://leetcode-cn.com/problems/surrounded-regions/" xr:uid="{405A2BB4-4710-4C6F-86C5-DDAA15C356DF}"/>
+    <hyperlink ref="C10" r:id="rId32" display="https://leetcode-cn.com/problems/number-of-islands/" xr:uid="{B2A73DA8-C7BE-4A4F-AB55-4E08170A97CB}"/>
+    <hyperlink ref="D10" r:id="rId33" display="https://leetcode-cn.com/problems/swim-in-rising-water/" xr:uid="{3CCDF6B4-5F66-4872-A484-F30DE0FDCE3F}"/>
+    <hyperlink ref="E10" r:id="rId34" xr:uid="{4832465A-3426-4FD3-86EE-1B69CC6D00D6}"/>
+    <hyperlink ref="B11" r:id="rId35" display="https://leetcode-cn.com/problems/find-the-town-judge/" xr:uid="{540C4C52-1941-4A5E-99B6-9EC14FF0A039}"/>
+    <hyperlink ref="C11" r:id="rId36" display="https://leetcode-cn.com/problems/clone-graph/" xr:uid="{0A9C038E-821E-4EBE-8E29-E8F7FB1E395D}"/>
+    <hyperlink ref="D11" r:id="rId37" display="https://leetcode-cn.com/problems/evaluate-division/" xr:uid="{78EC4165-80D1-4A10-83D2-59F4D7FA7D22}"/>
+    <hyperlink ref="E11" r:id="rId38" xr:uid="{BBC594F6-39E6-414C-AEBC-22543D5DF481}"/>
+    <hyperlink ref="B12" r:id="rId39" display="https://leetcode-cn.com/problems/implement-stack-using-queues/" xr:uid="{CE59B134-A3A4-4621-91D6-A142C1F77A1B}"/>
+    <hyperlink ref="C12" r:id="rId40" display="https://leetcode-cn.com/problems/lru-cache/" xr:uid="{3C7EACDC-4D98-4997-9E44-351B9E4E194B}"/>
+    <hyperlink ref="E12" r:id="rId41" xr:uid="{30BEEBE6-B2B7-48E7-BA9E-FF3E01AEF013}"/>
+    <hyperlink ref="D13" r:id="rId42" display="https://leetcode-cn.com/problems/longest-increasing-path-in-a-matrix/" xr:uid="{54C6204E-70A4-4D48-BA77-177A3E21D0B9}"/>
+    <hyperlink ref="E13" r:id="rId43" xr:uid="{EC693BFF-8A38-49E7-AF59-48165713BCD4}"/>
+    <hyperlink ref="B14" r:id="rId44" display="https://leetcode-cn.com/problems/implement-trie-prefix-tree/" xr:uid="{B83E00E8-A7F5-48D0-AED6-138BABFF9B1B}"/>
+    <hyperlink ref="C14" r:id="rId45" display="https://leetcode-cn.com/problems/top-k-frequent-words/" xr:uid="{7FA4B508-66F4-4BCB-9CC9-8BAA2D992703}"/>
+    <hyperlink ref="E14" r:id="rId46" xr:uid="{B730B412-4475-4FAD-B8B2-FD337C80CF68}"/>
+    <hyperlink ref="C15" r:id="rId47" display="https://leetcode-cn.com/problems/range-sum-query-mutable/" xr:uid="{5F1A9005-EF14-46A9-986C-B343723EF7BA}"/>
+    <hyperlink ref="E15" r:id="rId48" xr:uid="{01A73C83-77AB-4F04-96A7-260504CD1234}"/>
+    <hyperlink ref="E16" r:id="rId49" xr:uid="{EB914BB3-FB44-461B-A789-7530E65C65DD}"/>
+    <hyperlink ref="E17" r:id="rId50" xr:uid="{D1D5A500-6021-4D12-BBEC-7A85B99D0747}"/>
+    <hyperlink ref="E18" r:id="rId51" xr:uid="{C7E7ABFC-80B1-45D6-849C-FFADE02651D4}"/>
+    <hyperlink ref="E19" r:id="rId52" xr:uid="{BAAD58C8-091D-40BB-84B6-01B1F95BD4A0}"/>
+    <hyperlink ref="E20" r:id="rId53" xr:uid="{6C3A8A74-5DBD-47D6-9072-745546A180AF}"/>
+    <hyperlink ref="C21" r:id="rId54" display="https://leetcode-cn.com/problems/task-scheduler/" xr:uid="{04F05387-1EDD-4AA4-9C70-7085DA0FEA08}"/>
+    <hyperlink ref="D21" r:id="rId55" display="https://leetcode-cn.com/problems/shortest-subarray-with-sum-at-least-k/" xr:uid="{77DCC0BD-ED49-48B3-9563-169BC741BDA4}"/>
+    <hyperlink ref="E21" r:id="rId56" xr:uid="{D842BEDA-0581-4C54-8EE9-92DAFC7645FA}"/>
+    <hyperlink ref="D22" r:id="rId57" display="https://leetcode-cn.com/problems/guess-the-word/" xr:uid="{FE6D7247-ADA0-493C-A4DF-E67D73FD1210}"/>
+    <hyperlink ref="E22" r:id="rId58" xr:uid="{9354C3C1-88D6-493F-80F1-CA50F012D6AF}"/>
+    <hyperlink ref="E23" r:id="rId59" xr:uid="{A1A5C47B-42B5-43E2-B0EA-2DF34027CC57}"/>
+    <hyperlink ref="E24" r:id="rId60" xr:uid="{65299E7F-6379-4AB9-B781-14335B25644E}"/>
+    <hyperlink ref="E25" r:id="rId61" xr:uid="{D669A4D5-27F2-4397-9D85-4502FF78956C}"/>
+    <hyperlink ref="B26" r:id="rId62" display="https://leetcode-cn.com/problems/two-sum/" xr:uid="{7C995156-E7C6-41F0-92D9-747281BAD97F}"/>
+    <hyperlink ref="C26" r:id="rId63" display="https://leetcode-cn.com/problems/3sum-closest/" xr:uid="{A4F14FEE-520C-4417-9693-EE3967323715}"/>
+    <hyperlink ref="D26" r:id="rId64" display="https://leetcode-cn.com/problems/median-of-two-sorted-arrays/" xr:uid="{6A097307-256F-4AB6-8464-11AAB4387C18}"/>
+    <hyperlink ref="E26" r:id="rId65" xr:uid="{9D707C5A-876E-4EF6-BC87-8F6D0B24D37E}"/>
+    <hyperlink ref="C27" r:id="rId66" display="https://leetcode-cn.com/problems/longest-substring-without-repeating-characters/" xr:uid="{F62D481A-6C26-41A2-AB2C-CF7339EBE62B}"/>
+    <hyperlink ref="D27" r:id="rId67" display="https://leetcode-cn.com/problems/maximal-rectangle/" xr:uid="{955FA51F-3138-4AB9-B9EC-F30CBA51F7B1}"/>
+    <hyperlink ref="E27" r:id="rId68" xr:uid="{238D6367-8B5F-4C78-81D9-195BEB46E767}"/>
+    <hyperlink ref="B28" r:id="rId69" display="https://leetcode-cn.com/problems/merge-two-sorted-lists/" xr:uid="{C2F0EEBA-4C09-4E45-8598-6BFA29B7E7E1}"/>
+    <hyperlink ref="C28" r:id="rId70" display="https://leetcode-cn.com/problems/add-two-numbers/" xr:uid="{2DF07FB9-B2FC-4C8F-ACCA-091A073F7BEF}"/>
+    <hyperlink ref="D28" r:id="rId71" display="https://leetcode-cn.com/problems/reverse-nodes-in-k-group/" xr:uid="{A2891CF5-61C8-49DC-B892-7E87E7A6CF9D}"/>
+    <hyperlink ref="E28" r:id="rId72" xr:uid="{057CF680-105A-4172-BCFF-7F7E17D1C022}"/>
+    <hyperlink ref="E29" r:id="rId73" xr:uid="{568560C5-1E49-4C64-84E1-75FBA2B0CCA5}"/>
+    <hyperlink ref="B30" r:id="rId74" display="https://leetcode-cn.com/problems/remove-duplicates-from-sorted-array/" xr:uid="{F08D718E-4991-4E75-92D3-6F58957AD31C}"/>
+    <hyperlink ref="E30" r:id="rId75" xr:uid="{B2C830C1-1FF2-46DA-9FF8-EBAAA583A247}"/>
+    <hyperlink ref="B31" r:id="rId76" display="https://leetcode-cn.com/problems/roman-to-integer/" xr:uid="{5C4086F7-29EA-4A54-81AA-FFF948B5F95C}"/>
+    <hyperlink ref="C31" r:id="rId77" display="https://leetcode-cn.com/problems/longest-palindromic-substring/" xr:uid="{F4335197-DA11-49CD-8CC3-4AD6DF7D2D93}"/>
+    <hyperlink ref="D31" r:id="rId78" display="https://leetcode-cn.com/problems/regular-expression-matching/" xr:uid="{19476076-C9D0-4357-83C9-BE68788DFA93}"/>
+    <hyperlink ref="E31" r:id="rId79" xr:uid="{6954CBDC-87A6-4667-99A0-C1C37E7ECFAB}"/>
+    <hyperlink ref="B32" r:id="rId80" display="https://leetcode-cn.com/problems/two-sum-ii-input-array-is-sorted/" xr:uid="{33DE0A4A-E487-4EC9-9616-AFBE353E5FA2}"/>
+    <hyperlink ref="C32" r:id="rId81" display="https://leetcode-cn.com/problems/find-the-duplicate-number/" xr:uid="{ED075013-C155-4B3E-9751-3256B9243951}"/>
+    <hyperlink ref="E32" r:id="rId82" xr:uid="{9A72EAE0-C4AE-402B-B2E3-A79238C8DDA3}"/>
+    <hyperlink ref="B33" r:id="rId83" display="https://leetcode-cn.com/problems/maximum-subarray/" xr:uid="{A898478B-7034-454C-A8C5-91D94FF2FB70}"/>
+    <hyperlink ref="E33" r:id="rId84" xr:uid="{9A0C05CF-3ECF-4A47-B347-03A577496C38}"/>
+    <hyperlink ref="E34" r:id="rId85" xr:uid="{5584C61C-A318-4E08-8287-8BC9763C9001}"/>
+    <hyperlink ref="B35" r:id="rId86" display="https://leetcode-cn.com/problems/letter-case-permutation/" xr:uid="{092A2B7C-C4C6-468F-91CD-0C773A8949EA}"/>
+    <hyperlink ref="C35" r:id="rId87" display="https://leetcode-cn.com/problems/generate-parentheses/" xr:uid="{354E2FB1-20D0-40F1-B0BB-F870CECB4851}"/>
+    <hyperlink ref="D35" r:id="rId88" display="https://leetcode-cn.com/problems/sudoku-solver/" xr:uid="{F8DADDBA-D07F-4E47-8DD5-E2C9A3ADD307}"/>
+    <hyperlink ref="E35" r:id="rId89" xr:uid="{ED60C857-7350-49C6-B316-69BAA2CD2EEE}"/>
+    <hyperlink ref="C36" r:id="rId90" display="https://leetcode-cn.com/problems/implement-rand10-using-rand7/" xr:uid="{03A21487-0FFE-4244-9FEB-5A56419EF36B}"/>
+    <hyperlink ref="E36" r:id="rId91" xr:uid="{FE5B0701-07B7-4470-9D12-B3887E5350F4}"/>
+    <hyperlink ref="E37" r:id="rId92" xr:uid="{0D105BCD-8E58-45B3-90B3-419F927DF465}"/>
+    <hyperlink ref="C38" r:id="rId93" display="https://leetcode-cn.com/problems/minimum-swaps-to-group-all-1s-together/" xr:uid="{815AD7E4-0639-48AB-9ABD-D01BFE4F9C1C}"/>
+    <hyperlink ref="D38" r:id="rId94" display="https://leetcode-cn.com/problems/subarrays-with-k-different-integers/" xr:uid="{0DF8CCB4-63BF-4DFD-BD6C-54AF2377ECD9}"/>
+    <hyperlink ref="E38" r:id="rId95" xr:uid="{CC74EE66-45D3-4941-B975-37B87A32E896}"/>
+    <hyperlink ref="E39" r:id="rId96" xr:uid="{A41E8F4B-099A-446E-A072-00252AA1D6F8}"/>
+    <hyperlink ref="D40" r:id="rId97" display="https://leetcode-cn.com/problems/rectangle-area-ii/" xr:uid="{526C28EC-71BC-438F-9748-BC7574245D42}"/>
+    <hyperlink ref="E40" r:id="rId98" xr:uid="{A5DD61D6-48D0-4EA0-A9CA-C6561D10853D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId99"/>
+</worksheet>
 </file>